--- a/document/数据库设计/用户.xlsx
+++ b/document/数据库设计/用户.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="12450"/>
+    <workbookView windowWidth="28800" windowHeight="11700" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="表设计" sheetId="1" r:id="rId1"/>
+    <sheet name="功能需求" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82">
   <si>
     <t>用户授权信息（auth）</t>
   </si>
@@ -190,6 +190,78 @@
   </si>
   <si>
     <t>ext5 varchar 128</t>
+  </si>
+  <si>
+    <t>新增一条用户授权信息redis</t>
+  </si>
+  <si>
+    <t>查询用户授权信息列表</t>
+  </si>
+  <si>
+    <t>通过手机号绑定用户</t>
+  </si>
+  <si>
+    <t>新增一条用户基本信息</t>
+  </si>
+  <si>
+    <t>修改用户的基本信息</t>
+  </si>
+  <si>
+    <t>查询用户基本信息</t>
+  </si>
+  <si>
+    <t>新增用户的体征信息</t>
+  </si>
+  <si>
+    <t>查询体征信息记录</t>
+  </si>
+  <si>
+    <t>省市区级联查询redis</t>
+  </si>
+  <si>
+    <t>新增一条用户收货地址</t>
+  </si>
+  <si>
+    <t>更新用户收货地址</t>
+  </si>
+  <si>
+    <t>查询用户收货地址</t>
+  </si>
+  <si>
+    <t>删除用户用收货地址</t>
+  </si>
+  <si>
+    <t>选择默认的收货地址</t>
+  </si>
+  <si>
+    <t>查询用户的登陆记录</t>
+  </si>
+  <si>
+    <t>新增一套用户登陆流水</t>
+  </si>
+  <si>
+    <t>更新用户登陆信息token状态</t>
+  </si>
+  <si>
+    <t>查询用户登陆流水</t>
+  </si>
+  <si>
+    <t>新增积分变化记录</t>
+  </si>
+  <si>
+    <t>查询新增变化流水</t>
+  </si>
+  <si>
+    <t>查询用户视图</t>
+  </si>
+  <si>
+    <t>更新用户视图</t>
+  </si>
+  <si>
+    <t>共享用户回话 cloudsession</t>
+  </si>
+  <si>
+    <t>体征信息统计报告</t>
   </si>
 </sst>
 </file>
@@ -197,12 +269,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -211,9 +283,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <strike/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -225,10 +312,49 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -240,6 +366,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -250,59 +392,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -315,19 +412,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -339,19 +428,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -364,187 +444,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -595,6 +675,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -606,21 +695,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -643,17 +717,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -665,6 +745,15 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -683,166 +772,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -852,69 +932,63 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -933,7 +1007,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1210,15 +1284,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="E1:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" topLeftCell="B28" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="7"/>
   <cols>
     <col min="5" max="5" width="43.375" customWidth="1"/>
     <col min="8" max="8" width="43.375" customWidth="1"/>
@@ -1235,7 +1309,7 @@
       </c>
     </row>
     <row r="3" spans="5:5">
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1264,7 +1338,7 @@
       </c>
     </row>
     <row r="7" spans="5:8">
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="H7" t="s">
@@ -1272,7 +1346,7 @@
       </c>
     </row>
     <row r="8" spans="5:8">
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H8" t="s">
@@ -1280,7 +1354,7 @@
       </c>
     </row>
     <row r="9" spans="5:8">
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H9" t="s">
@@ -1288,7 +1362,7 @@
       </c>
     </row>
     <row r="10" spans="5:8">
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="3" t="s">
         <v>15</v>
       </c>
       <c r="H10" s="2" t="s">
@@ -1296,7 +1370,7 @@
       </c>
     </row>
     <row r="11" spans="5:8">
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="3" t="s">
         <v>17</v>
       </c>
       <c r="H11" s="2" t="s">
@@ -1304,7 +1378,7 @@
       </c>
     </row>
     <row r="12" spans="5:8">
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="3" t="s">
         <v>19</v>
       </c>
       <c r="H12" s="2" t="s">
@@ -1312,7 +1386,7 @@
       </c>
     </row>
     <row r="13" spans="8:8">
-      <c r="H13" s="5" t="s">
+      <c r="H13" s="3" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1325,10 +1399,10 @@
       </c>
     </row>
     <row r="15" spans="5:8">
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H15" s="5" t="s">
+      <c r="H15" s="3" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1354,7 +1428,7 @@
       </c>
     </row>
     <row r="19" spans="5:8">
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="2" t="s">
         <v>28</v>
       </c>
       <c r="H19" s="2" t="s">
@@ -1362,7 +1436,7 @@
       </c>
     </row>
     <row r="20" spans="5:8">
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="4" t="s">
         <v>29</v>
       </c>
       <c r="H20" s="2" t="s">
@@ -1370,7 +1444,7 @@
       </c>
     </row>
     <row r="21" spans="5:8">
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="4" t="s">
         <v>31</v>
       </c>
       <c r="H21" s="2" t="s">
@@ -1402,10 +1476,10 @@
       </c>
     </row>
     <row r="25" spans="5:8">
-      <c r="E25" s="5" t="s">
+      <c r="E25" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H25" s="5" t="s">
+      <c r="H25" s="3" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1420,67 +1494,67 @@
       </c>
     </row>
     <row r="28" spans="5:5">
-      <c r="E28" s="5" t="s">
+      <c r="E28" s="3" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="29" spans="8:8">
-      <c r="H29" s="6" t="s">
+      <c r="H29" s="1" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="30" spans="8:8">
-      <c r="H30" s="3" t="s">
+      <c r="H30" s="2" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="31" spans="8:8">
-      <c r="H31" s="3" t="s">
+      <c r="H31" s="2" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="32" spans="5:8">
-      <c r="E32" s="6" t="s">
+      <c r="E32" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H32" s="3" t="s">
+      <c r="H32" s="2" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="33" spans="5:8">
-      <c r="E33" s="3" t="s">
+      <c r="E33" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H33" s="3" t="s">
+      <c r="H33" s="2" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="34" spans="5:8">
-      <c r="E34" s="3" t="s">
+      <c r="E34" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H34" s="3" t="s">
+      <c r="H34" s="2" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="35" spans="5:8">
-      <c r="E35" s="3" t="s">
+      <c r="E35" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="H35" s="5" t="s">
+      <c r="H35" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="36" spans="5:8">
-      <c r="E36" s="3" t="s">
+      <c r="E36" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H36" s="5" t="s">
+      <c r="H36" s="3" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="37" spans="5:8">
-      <c r="E37" s="3" t="s">
+      <c r="E37" s="2" t="s">
         <v>49</v>
       </c>
       <c r="H37" t="s">
@@ -1488,7 +1562,7 @@
       </c>
     </row>
     <row r="38" spans="5:8">
-      <c r="E38" s="3" t="s">
+      <c r="E38" s="2" t="s">
         <v>51</v>
       </c>
       <c r="H38" t="s">
@@ -1496,7 +1570,7 @@
       </c>
     </row>
     <row r="39" spans="5:8">
-      <c r="E39" s="3" t="s">
+      <c r="E39" s="2" t="s">
         <v>53</v>
       </c>
       <c r="H39" t="s">
@@ -1504,7 +1578,7 @@
       </c>
     </row>
     <row r="40" spans="5:8">
-      <c r="E40" s="3" t="s">
+      <c r="E40" s="2" t="s">
         <v>55</v>
       </c>
       <c r="H40" t="s">
@@ -1512,7 +1586,7 @@
       </c>
     </row>
     <row r="41" spans="5:8">
-      <c r="E41" s="5" t="s">
+      <c r="E41" s="3" t="s">
         <v>17</v>
       </c>
       <c r="H41" t="s">
@@ -1520,19 +1594,160 @@
       </c>
     </row>
     <row r="42" spans="5:5">
-      <c r="E42" s="5" t="s">
+      <c r="E42" s="3" t="s">
         <v>19</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="B2:B26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="1"/>
+  <cols>
+    <col min="2" max="2" width="29.5384615384615" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2">
+      <c r="B2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" t="s">
+        <v>81</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -1540,26 +1755,9 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>

--- a/document/数据库设计/用户.xlsx
+++ b/document/数据库设计/用户.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11700" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="11700"/>
   </bookViews>
   <sheets>
     <sheet name="表设计" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103">
   <si>
     <t>用户授权信息（auth）</t>
   </si>
@@ -48,58 +48,70 @@
     <t>状态（dr）char 1可用 0不可用</t>
   </si>
   <si>
-    <t>省行政编号</t>
+    <t>地址编号 (addr_id) bigint 64</t>
   </si>
   <si>
     <t>用户名</t>
   </si>
   <si>
-    <t>市行政编号</t>
+    <t>省行政编号 (province_no) varchar(16)</t>
   </si>
   <si>
     <t>密码</t>
   </si>
   <si>
-    <t>区行政编号</t>
+    <t>省名 (province_name) varchar(512)</t>
   </si>
   <si>
     <t>邮箱</t>
   </si>
   <si>
-    <t>是否默认 (use_default)varchar 8</t>
+    <t>市行政编号(city_no) varchar(16)</t>
   </si>
   <si>
     <t>创建时间（cdt）date sysdate()</t>
   </si>
   <si>
+    <t>市名 (city_name) varchar(512)</t>
+  </si>
+  <si>
+    <t>修改时间（cdt）date sysdate()</t>
+  </si>
+  <si>
+    <t>区行政编号(distrc_no) varchar(16)</t>
+  </si>
+  <si>
+    <t>区名 (distrc_name) varchar(512)</t>
+  </si>
+  <si>
+    <t>基本信息(customer_base_info)</t>
+  </si>
+  <si>
+    <t>是否默认 (default)varchar 8</t>
+  </si>
+  <si>
     <t>收货地址 (addr_detail) varchar 512</t>
   </si>
   <si>
-    <t>修改时间（cdt）date sysdate()</t>
+    <t>用户id（customer_id）</t>
   </si>
   <si>
     <t>收货手机号码 (connector_mobile)varchar 64</t>
   </si>
   <si>
+    <t>姓名(realname) varchar 32</t>
+  </si>
+  <si>
     <t>收货人姓名 (connector_name)varchar 32</t>
   </si>
   <si>
-    <t>基本信息(customer_base_info)</t>
-  </si>
-  <si>
-    <t>用户id（customer_id）</t>
-  </si>
-  <si>
-    <t>姓名(realname) varchar 32</t>
-  </si>
-  <si>
     <t>体征信息（customer_body_info）</t>
   </si>
   <si>
     <t>出生日期 (varchar)</t>
   </si>
   <si>
-    <t>信息id (id)</t>
+    <t>id (id)</t>
   </si>
   <si>
     <t>年龄（int）</t>
@@ -108,82 +120,133 @@
     <t>身高 (varchar)</t>
   </si>
   <si>
-    <t>体征信息1</t>
+    <t>记录编号 (record_id) varchar(64)</t>
   </si>
   <si>
     <t>体重 （varchar）</t>
   </si>
   <si>
-    <t>体征信息2</t>
+    <t>登记日期 register_date (datetime)</t>
   </si>
   <si>
     <t xml:space="preserve">性别 （varchar） </t>
   </si>
   <si>
-    <t>体征信息3</t>
+    <t xml:space="preserve">身高 cm  (height) varchar(8) </t>
   </si>
   <si>
     <t>用户昵称（nickname）varchar 32</t>
   </si>
   <si>
-    <t>体征信息4</t>
+    <t>体重 kg (weight) varchar(8)</t>
   </si>
   <si>
     <t>用户头像（headimg）varchar 256</t>
   </si>
   <si>
+    <t xml:space="preserve">胸围 cm (chest) varchar(8) </t>
+  </si>
+  <si>
     <t>当前积分（accumulate_score）int 16</t>
   </si>
   <si>
+    <t xml:space="preserve">腰围 cm (waistline) varchar(8) </t>
+  </si>
+  <si>
     <t>用户手机号（mobile）varchar 64</t>
   </si>
   <si>
+    <t xml:space="preserve">臀围 cm (hipline) varchar(8) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">腰臀比 (waist_hip_ratio)  varchar(8) </t>
+  </si>
+  <si>
+    <t>左大臂围  cm (left_arm_circumference) varchar(8)</t>
+  </si>
+  <si>
     <t>积分变化表</t>
   </si>
   <si>
+    <t>右大臂围  cm (right_arm_circumference) varchar(8)</t>
+  </si>
+  <si>
     <t>id bigint 64 primarykey auto incremnet</t>
   </si>
   <si>
+    <t>左大腿围  cm (left_thigh_circumference) varchar(8)</t>
+  </si>
+  <si>
+    <t>积分变化流水号 trans_no bigint(64)</t>
+  </si>
+  <si>
+    <t>右大腿围   cm (right_thigh_circumference) varchar(8)</t>
+  </si>
+  <si>
+    <t>用户登录信息记录表</t>
+  </si>
+  <si>
     <t>用户id</t>
   </si>
   <si>
-    <t>用户登录信息记录表</t>
+    <t xml:space="preserve">体脂率 % (fat percentage) varchar(8) </t>
   </si>
   <si>
     <t>变更类型</t>
   </si>
   <si>
+    <t>心率  次/分 (heart_rate) varchar(8)</t>
+  </si>
+  <si>
     <t>变化数量</t>
   </si>
   <si>
+    <t>血压(收缩压)  mm/Hg (sdp) varchar(8)</t>
+  </si>
+  <si>
+    <t>登录渠道 wx ali app</t>
+  </si>
+  <si>
     <t>当前积分</t>
   </si>
   <si>
-    <t>登录渠道 wx ali app</t>
+    <t>血压(舒张压) mm/Hg (dbp) varchar(8)</t>
   </si>
   <si>
     <t>事件类型 登录 登出</t>
   </si>
   <si>
+    <t>脂肪含量 kg (fat_content) varchar(8)</t>
+  </si>
+  <si>
     <t>发生时间</t>
   </si>
   <si>
+    <t>骨骼肌含量 kg (muscle_content) varchar(8)</t>
+  </si>
+  <si>
+    <t>凭证类型 wx apli</t>
+  </si>
+  <si>
     <t>ext1 varchar 128</t>
   </si>
   <si>
-    <t>凭证类型 wx apli</t>
+    <t xml:space="preserve"> 体质指数 (bmi) varchar(8)</t>
+  </si>
+  <si>
+    <t>身高/体重的（二次幂）</t>
+  </si>
+  <si>
+    <t>对应token</t>
   </si>
   <si>
     <t>ext2 varchar 128</t>
   </si>
   <si>
-    <t>对应token</t>
+    <t>token过期时间</t>
   </si>
   <si>
     <t>ext3 varchar 128</t>
-  </si>
-  <si>
-    <t>token过期时间</t>
   </si>
   <si>
     <t>ext4 varchar 128</t>
@@ -269,9 +332,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -312,6 +375,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -327,8 +398,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -342,6 +422,66 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -351,89 +491,12 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -456,13 +519,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -474,157 +669,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -684,6 +747,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -695,6 +767,45 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -716,30 +827,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -748,168 +835,144 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -922,7 +985,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -936,6 +999,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1286,16 +1358,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="E1:H42"/>
+  <dimension ref="E1:K42"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" topLeftCell="B28" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
+      <selection activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
     <col min="5" max="5" width="43.375" customWidth="1"/>
     <col min="8" max="8" width="43.375" customWidth="1"/>
+    <col min="10" max="10" width="54.0769230769231" customWidth="1"/>
+    <col min="11" max="11" width="23.6153846153846" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="5:5">
@@ -1365,7 +1439,7 @@
       <c r="E10" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H10" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1373,7 +1447,7 @@
       <c r="E11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="H11" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1381,12 +1455,12 @@
       <c r="E12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="H12" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="13" spans="8:8">
-      <c r="H13" s="3" t="s">
+      <c r="H13" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1395,207 +1469,271 @@
         <v>22</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="5:8">
       <c r="E15" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="H15" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="5:8">
+      <c r="E16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="5:10">
+      <c r="E17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="5:10">
+      <c r="E18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="5:10">
+      <c r="E19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H19" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="16" spans="5:5">
-      <c r="E16" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="5:8">
-      <c r="E17" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="5:8">
-      <c r="E18" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="5:8">
-      <c r="E19" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H19" s="2" t="s">
+      <c r="J19" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="5:8">
+    <row r="20" spans="5:10">
       <c r="E20" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="5:8">
+        <v>33</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="5:10">
       <c r="E21" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="5:8">
+        <v>35</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="5:10">
       <c r="E22" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="5:8">
+        <v>37</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="5:10">
       <c r="E23" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="5:8">
+        <v>39</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="5:10">
       <c r="E24" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="5:8">
+        <v>41</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="5:10">
       <c r="E25" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26" spans="5:5">
+        <v>43</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="5:10">
       <c r="E26" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="5:5">
+        <v>45</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="5:10">
       <c r="E27" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="28" spans="5:5">
+      <c r="J27" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="5:10">
       <c r="E28" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="29" spans="8:8">
+      <c r="J28" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="8:10">
       <c r="H29" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="30" spans="8:8">
+        <v>49</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="8:10">
       <c r="H30" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="31" spans="8:8">
-      <c r="H31" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="32" spans="5:8">
+        <v>51</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="8:10">
+      <c r="H31" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J31" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="5:10">
       <c r="E32" s="1" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="5:8">
+        <v>56</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="5:10">
       <c r="E33" s="2" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="5:8">
+        <v>58</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="5:10">
       <c r="E34" s="2" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="35" spans="5:8">
+        <v>60</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="5:10">
       <c r="E35" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H35" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="5:10">
+      <c r="E36" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H36" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="36" spans="5:8">
-      <c r="E36" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H36" s="3" t="s">
+      <c r="J36" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="37" spans="5:10">
+      <c r="E37" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H37" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="37" spans="5:8">
-      <c r="E37" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="H37" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="38" spans="5:8">
+      <c r="J37" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="38" spans="5:11">
       <c r="E38" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H38" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="39" spans="5:8">
+        <v>69</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K38" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="39" spans="5:10">
       <c r="E39" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H39" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="40" spans="5:8">
+        <v>73</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="5:10">
       <c r="E40" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H40" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="41" spans="5:8">
+        <v>75</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="5:10">
       <c r="E41" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H41" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="42" spans="5:5">
+      <c r="H41" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="J41" s="7"/>
+    </row>
+    <row r="42" spans="5:8">
       <c r="E42" s="3" t="s">
         <v>19</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1610,7 +1748,7 @@
   <sheetPr/>
   <dimension ref="B2:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
@@ -1621,122 +1759,122 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
